--- a/RunSQLScripts/ScriptConfig-2.xlsx
+++ b/RunSQLScripts/ScriptConfig-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/gazho_microsoft_com/Documents/Zhou_Data/Projects_Assets_IP_and_Tools/PowerShell_Scripts/Run_SQLScripts_W_Stress/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gazho\OneDrive - Microsoft\Zhou_Data\Projects_Assets_IP_and_Tools\PowerShell_Scripts\Run_SQLScripts_W_Stress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E32EEF1C-DC4C-4138-BB08-94C5325E9ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{743E7A13-574F-4C1E-B1CC-748F673905CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C214495D-C06C-48B5-A25B-98A6C69F6669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28125" yWindow="-2130" windowWidth="24435" windowHeight="11100" xr2:uid="{A1E37364-5442-46D7-B42D-AEEBF040B4C1}"/>
+    <workbookView xWindow="-28065" yWindow="-4170" windowWidth="21885" windowHeight="10875" xr2:uid="{A1E37364-5442-46D7-B42D-AEEBF040B4C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ServerDatabaseConfig" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
   <si>
     <t>Active</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>BadQuery.sql</t>
+  </si>
+  <si>
+    <t>ConnectionTimeOut</t>
+  </si>
+  <si>
+    <t>QueryTimeOut</t>
   </si>
 </sst>
 </file>
@@ -469,20 +475,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15B895-B58E-4D97-B54B-122E16CD9513}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.265625" customWidth="1"/>
-    <col min="3" max="3" width="17.06640625" customWidth="1"/>
+    <col min="2" max="4" width="22.265625" customWidth="1"/>
+    <col min="5" max="5" width="17.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -490,10 +496,16 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -501,6 +513,12 @@
         <v>16</v>
       </c>
       <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
     </row>
